--- a/biology/Médecine/Nicolas_Chervin/Nicolas_Chervin.xlsx
+++ b/biology/Médecine/Nicolas_Chervin/Nicolas_Chervin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Chervin, né le 6 octobre 1783 à Saint-Laurent-d'Oingt (Lyonnais) et mort le 14 août 1843 à Bourbonne-les-Bains (Haute-Marne), est un médecin français. Il est connu pour avoir voué sa vie à établir la non-contagion de la fièvre jaune[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Chervin, né le 6 octobre 1783 à Saint-Laurent-d'Oingt (Lyonnais) et mort le 14 août 1843 à Bourbonne-les-Bains (Haute-Marne), est un médecin français. Il est connu pour avoir voué sa vie à établir la non-contagion de la fièvre jaune.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'agriculteur, après la mort de son père l'année de ses 21 ans, il se rend à Lyon en 1806 pour suivre des études classiques et médicales. En 1810, il réussit le concours d'entrée à l'Hôtel Dieu de Lyon et en 1812 à Paris il reçoit le titre de docteur en médecine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'agriculteur, après la mort de son père l'année de ses 21 ans, il se rend à Lyon en 1806 pour suivre des études classiques et médicales. En 1810, il réussit le concours d'entrée à l'Hôtel Dieu de Lyon et en 1812 à Paris il reçoit le titre de docteur en médecine.
 Après avoir étudié le typhus à Mayence où il est envoyé quand la maladie se déclara en 1813, il visite les lieux où sévit la fièvre jaune, La Nouvelle-Orléans, les Antilles, la Havane, Cayenne (1824), Cadix (1828), s'exposant lui-même à tous les dangers de la contagion, revêtant même la chemise des victimes du fléau ; de retour à Paris en 1825, il adresse à la Chambre des Députés une pétition réclamant l'arrêt de la formation des établissements de soins contre la fièvre jaune. A la demande du ministre de l'Intérieur, il soutient sa thèse avec force dans des Mémoires adressés à l'Académie Royale de Médecine en 1829, Mémoires vivement combattus par Étienne Pariset, mais qui lui valent un prix de 10 000 francs décerné par l’Institut et un siège à l'Académie (1832). Il réussit enfin à faire réformer les lazarets et les quarantaines.
-Il meurt le 14 août 1843 à Bourbonne-les-Bains[3].
+Il meurt le 14 août 1843 à Bourbonne-les-Bains.
 </t>
         </is>
       </c>
